--- a/toy_data_output_test.xlsx
+++ b/toy_data_output_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\pythonScripts\Mtb_inhibition\Mtb_inhibition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000CCCD0-82A8-4147-A8BD-3D8F7121639B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564803A8-8587-4982-BAF8-B8A64F8FA0A9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{D0B9BDEA-F22B-4D75-9D82-650F222F8BFC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="2167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3143" uniqueCount="2253">
   <si>
     <t>GPRLSGONYQIRFK-UHFFFAOYSA-N</t>
   </si>
@@ -6527,6 +6527,264 @@
   </si>
   <si>
     <t>Met 2 cID</t>
+  </si>
+  <si>
+    <t>XGYIMTFOTBMPFP-KQYNXXCUSA-N</t>
+  </si>
+  <si>
+    <t>5'-Deoxyadenosine_c0</t>
+  </si>
+  <si>
+    <t>cpd03091_c0</t>
+  </si>
+  <si>
+    <t>BDUIIKXSXFDPEC-LWKDLAHASA-K</t>
+  </si>
+  <si>
+    <t>FOGRQMPFHUHIGU-XVFCMESISA-L</t>
+  </si>
+  <si>
+    <t>HWDMHJDYMFRXOX-XVFCMESISA-M</t>
+  </si>
+  <si>
+    <t>IADQVXRMSNIUEL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>IGGGNUSEBUZFTR-VKNDNNCMSA-K</t>
+  </si>
+  <si>
+    <t>IPRPPFIAVHPVJH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>KKSDGJDHHZEWEP-SNAWJCMRSA-M</t>
+  </si>
+  <si>
+    <t>KMYWVDDIPVNLME-KQYNXXCUSA-M</t>
+  </si>
+  <si>
+    <t>LNQVTSROQXJCDD-KQYNXXCUSA-L</t>
+  </si>
+  <si>
+    <t>NMPZCCZXCOMSDQ-XVFCMESISA-M</t>
+  </si>
+  <si>
+    <t>PECYZEOJVXMISF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>PPQRONHOSHZGFQ-WDCZJNDASA-L</t>
+  </si>
+  <si>
+    <t>PSONHUYFSWYIME-RZVIFHIQSA-K</t>
+  </si>
+  <si>
+    <t>QVWAEZJXDYOKEH-UHFFFAOYSA-M</t>
+  </si>
+  <si>
+    <t>QZDSXQJWBGMRLU-UHFFFAOYSA-M</t>
+  </si>
+  <si>
+    <t>RGHNJXZEOKUKBD-SKNVOMKLSA-M</t>
+  </si>
+  <si>
+    <t>SIUKXCMDYPYCLH-SNAWJCMRSA-M</t>
+  </si>
+  <si>
+    <t>UASRYODFRYWBRC-UUOKFMHZSA-M</t>
+  </si>
+  <si>
+    <t>UOOOPKANIPLQPU-XVFCMESISA-L</t>
+  </si>
+  <si>
+    <t>VBUYCZFBVCCYFD-JJYYJPOSSA-N</t>
+  </si>
+  <si>
+    <t>VBUYCZFBVCCYFD-NUNKFHFFSA-N</t>
+  </si>
+  <si>
+    <t>VYFYYTLLBUKUHU-UHFFFAOYSA-O</t>
+  </si>
+  <si>
+    <t>WTAHRPBPWHCMHW-LWKDLAHASA-M</t>
+  </si>
+  <si>
+    <t>YHXQWYBLXUELDA-HYPDDMKDSA-L</t>
+  </si>
+  <si>
+    <t>ZDPUTNZENXVHJC-UUOKFMHZSA-L</t>
+  </si>
+  <si>
+    <t>Adenosine_p0</t>
+  </si>
+  <si>
+    <t>cpd00182_p0</t>
+  </si>
+  <si>
+    <t>Undecaprenyl-diphospho-N-acetylglucosamine-N-acetylmannosaminuronate_c0</t>
+  </si>
+  <si>
+    <t>cpd15581_c0</t>
+  </si>
+  <si>
+    <t>Undecaprenyl-diphospho N-acetylglucosamine-N-acetylmannosaminuronate-N-acetamido-4,6-dideoxy-D-galactose_c0</t>
+  </si>
+  <si>
+    <t>cpd15582_c0</t>
+  </si>
+  <si>
+    <t>2',3'-Cyclic GMP_e0</t>
+  </si>
+  <si>
+    <t>cpd03702_e0</t>
+  </si>
+  <si>
+    <t>Gp_p0</t>
+  </si>
+  <si>
+    <t>cpd03701_p0</t>
+  </si>
+  <si>
+    <t>Guanosine_p0</t>
+  </si>
+  <si>
+    <t>cpd00311_p0</t>
+  </si>
+  <si>
+    <t>3'-AMP_p0</t>
+  </si>
+  <si>
+    <t>cpd00988_p0</t>
+  </si>
+  <si>
+    <t>2',3'-Cyclic AMP_e0</t>
+  </si>
+  <si>
+    <t>cpd01570_e0</t>
+  </si>
+  <si>
+    <t>3'-UMP_p0</t>
+  </si>
+  <si>
+    <t>cpd00989_p0</t>
+  </si>
+  <si>
+    <t>2',3'-Cyclic UMP_e0</t>
+  </si>
+  <si>
+    <t>cpd01572_e0</t>
+  </si>
+  <si>
+    <t>2',3'-Cyclic CMP_e0</t>
+  </si>
+  <si>
+    <t>cpd01571_e0</t>
+  </si>
+  <si>
+    <t>3'-CMP_p0</t>
+  </si>
+  <si>
+    <t>cpd03454_p0</t>
+  </si>
+  <si>
+    <t>Uridine_p0</t>
+  </si>
+  <si>
+    <t>cpd00249_p0</t>
+  </si>
+  <si>
+    <t>Cytidine_p0</t>
+  </si>
+  <si>
+    <t>cpd00367_p0</t>
+  </si>
+  <si>
+    <t>2-Dehydro-D-gluconate_c0</t>
+  </si>
+  <si>
+    <t>cpd00480_c0</t>
+  </si>
+  <si>
+    <t>2-Dehydro-L-gulonate_c0</t>
+  </si>
+  <si>
+    <t>cpd15351_c0</t>
+  </si>
+  <si>
+    <t>3-Coumaric acid_c0</t>
+  </si>
+  <si>
+    <t>cpd09252_c0</t>
+  </si>
+  <si>
+    <t>2,3-dihydroxicinnamic acid_c0</t>
+  </si>
+  <si>
+    <t>cpd09254_c0</t>
+  </si>
+  <si>
+    <t>Protocatechuatealdehyde_e0</t>
+  </si>
+  <si>
+    <t>cpd02500_e0</t>
+  </si>
+  <si>
+    <t>4-Hydroxyphenylacetaldehyde_e0</t>
+  </si>
+  <si>
+    <t>cpd02361_e0</t>
+  </si>
+  <si>
+    <t>Dihydro-3-coumaric acid_c0</t>
+  </si>
+  <si>
+    <t>cpd08304_c0</t>
+  </si>
+  <si>
+    <t>2,3-Dihydroxyphenylpropanoate_c0</t>
+  </si>
+  <si>
+    <t>cpd02501_c0</t>
+  </si>
+  <si>
+    <t>L-Idonate_c0</t>
+  </si>
+  <si>
+    <t>cpd00573_c0</t>
+  </si>
+  <si>
+    <t>Dopamine_p0</t>
+  </si>
+  <si>
+    <t>cpd02357_p0</t>
+  </si>
+  <si>
+    <t>D-Arabinose5-phosphate_c0</t>
+  </si>
+  <si>
+    <t>cpd00817_c0</t>
+  </si>
+  <si>
+    <t>2,3-Diaminopropionate_p0</t>
+  </si>
+  <si>
+    <t>cpd03828_p0</t>
+  </si>
+  <si>
+    <t>3-Dehydro-L-gulonate_c0</t>
+  </si>
+  <si>
+    <t>cpd00473_c0</t>
+  </si>
+  <si>
+    <t>3-keto-L-gulonate-6-phosphate_c0</t>
+  </si>
+  <si>
+    <t>cpd10596_c0</t>
+  </si>
+  <si>
+    <t>dTDP-4-acetamido-4,6-dideoxy-D-galactose_c0</t>
+  </si>
+  <si>
+    <t>cpd15454_c0</t>
   </si>
 </sst>
 </file>
@@ -6570,9 +6828,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6898,10 +7159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410BC57F-53AD-4BF7-86BF-8529DBC463AB}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection sqref="A1:G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6914,1462 +7175,3366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2165</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1365</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2166</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="str">
-        <f>VLOOKUP(A2,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>H+_c0</v>
-      </c>
-      <c r="C2" t="str">
-        <f>VLOOKUP(B2,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00067_c0</v>
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1401</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="str">
-        <f>VLOOKUP(D2,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>NH3_c0</v>
-      </c>
-      <c r="F2" t="str">
-        <f>VLOOKUP(E2,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00013_c0</v>
+        <v>912</v>
+      </c>
+      <c r="E2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1472</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.99051787016776005</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="str">
-        <f>VLOOKUP(A3,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>H+_c0</v>
-      </c>
-      <c r="C3" t="str">
-        <f>VLOOKUP(B3,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00067_c0</v>
+        <v>1266</v>
+      </c>
+      <c r="B3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1993</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="str">
-        <f>VLOOKUP(D3,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>H2S_c0</v>
-      </c>
-      <c r="F3" t="str">
-        <f>VLOOKUP(E3,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00239_c0</v>
+        <v>912</v>
+      </c>
+      <c r="E3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1472</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.98917748917748904</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="str">
-        <f>VLOOKUP(A4,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>H+_c0</v>
-      </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(B4,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00067_c0</v>
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1397</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="str">
-        <f>VLOOKUP(D4,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>H2O_c0</v>
-      </c>
-      <c r="F4" t="str">
-        <f>VLOOKUP(E4,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00001_c0</v>
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1377</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.980408163265306</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="str">
-        <f>VLOOKUP(A5,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>dTDP-4-oxo-L-rhamnose_c0</v>
-      </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(B5,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00522_c0</v>
+        <v>1266</v>
+      </c>
+      <c r="B5" t="s">
+        <v>703</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1993</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="str">
-        <f>VLOOKUP(D5,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>dTDP-4-oxo-6-deoxy-D-glucose_c0</v>
-      </c>
-      <c r="F5" t="str">
-        <f>VLOOKUP(E5,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00521_c0</v>
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1401</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.979797979797979</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="str">
-        <f>VLOOKUP(A6,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NH3_c0</v>
-      </c>
-      <c r="C6" t="str">
-        <f>VLOOKUP(B6,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00013_c0</v>
+        <v>983</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2196</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="str">
-        <f>VLOOKUP(D6,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>H2S_c0</v>
-      </c>
-      <c r="F6" t="str">
-        <f>VLOOKUP(E6,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00239_c0</v>
+        <v>2167</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2168</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2169</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.97663551401869098</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="str">
-        <f>VLOOKUP(A7,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NH3_c0</v>
-      </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(B7,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00013_c0</v>
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1403</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="str">
-        <f>VLOOKUP(D7,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>H2O_c0</v>
-      </c>
-      <c r="F7" t="str">
-        <f>VLOOKUP(E7,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00001_c0</v>
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1406</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.96080992815153499</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="str">
-        <f>VLOOKUP(A8,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>H2S_c0</v>
-      </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(B8,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00239_c0</v>
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1381</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="str">
-        <f>VLOOKUP(D8,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>H2O_c0</v>
-      </c>
-      <c r="F8" t="str">
-        <f>VLOOKUP(E8,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00001_c0</v>
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1397</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.956702747710241</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="str">
-        <f>VLOOKUP(A9,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>dTDPglucose_c0</v>
-      </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(B9,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00626_c0</v>
+        <v>2174</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2198</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="str">
-        <f>VLOOKUP(D9,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>dTDP-rhamnose_c0</v>
-      </c>
-      <c r="F9" t="str">
-        <f>VLOOKUP(E9,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd02113_c0</v>
+        <v>2182</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2199</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2200</v>
       </c>
       <c r="G9">
-        <v>0.99662447257383902</v>
+        <v>0.94941956882255296</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="str">
-        <f>VLOOKUP(A10,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>ADP_c0</v>
-      </c>
-      <c r="C10" t="str">
-        <f>VLOOKUP(B10,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00008_c0</v>
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1404</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="str">
-        <f>VLOOKUP(D10,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>ATP_c0</v>
-      </c>
-      <c r="F10" t="str">
-        <f>VLOOKUP(E10,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00002_c0</v>
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1405</v>
       </c>
       <c r="G10">
-        <v>0.980408163265306</v>
+        <v>0.94607843137254899</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="str">
-        <f>VLOOKUP(A11,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>CoA_c0</v>
-      </c>
-      <c r="C11" t="str">
-        <f>VLOOKUP(B11,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00010_c0</v>
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1381</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="str">
-        <f>VLOOKUP(D11,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>Succinyl-CoA_c0</v>
-      </c>
-      <c r="F11" t="str">
-        <f>VLOOKUP(E11,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00078_c0</v>
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1377</v>
       </c>
       <c r="G11">
-        <v>0.970693352394567</v>
+        <v>0.93795918367346898</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="str">
-        <f>VLOOKUP(A12,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NAD_c0</v>
-      </c>
-      <c r="C12" t="str">
-        <f>VLOOKUP(B12,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00003_c0</v>
+        <v>2187</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2202</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="str">
-        <f>VLOOKUP(D12,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>NADP_c0</v>
-      </c>
-      <c r="F12" t="str">
-        <f>VLOOKUP(E12,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00006_c0</v>
+        <v>2194</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2203</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2204</v>
       </c>
       <c r="G12">
-        <v>0.96080992815153499</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>983</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="str">
-        <f>VLOOKUP(A13,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>AMP_c0</v>
-      </c>
-      <c r="C13" t="str">
-        <f>VLOOKUP(B13,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00018_c0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="str">
-        <f>VLOOKUP(D13,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>ADP_c0</v>
-      </c>
-      <c r="F13" t="str">
-        <f>VLOOKUP(E13,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00008_c0</v>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1381</v>
       </c>
       <c r="G13">
-        <v>0.956702747710241</v>
+        <v>0.93124456048738002</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="str">
-        <f>VLOOKUP(A14,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NADPH_c0</v>
-      </c>
-      <c r="C14" t="str">
-        <f>VLOOKUP(B14,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00005_c0</v>
+        <v>980</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2206</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="str">
-        <f>VLOOKUP(D14,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>NADH_c0</v>
-      </c>
-      <c r="F14" t="str">
-        <f>VLOOKUP(E14,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00004_c0</v>
+        <v>2194</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2203</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2204</v>
       </c>
       <c r="G14">
-        <v>0.94607843137254899</v>
+        <v>0.93106060606060603</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="str">
-        <f>VLOOKUP(A15,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>AMP_c0</v>
-      </c>
-      <c r="C15" t="str">
-        <f>VLOOKUP(B15,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00018_c0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="str">
-        <f>VLOOKUP(D15,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>ATP_c0</v>
-      </c>
-      <c r="F15" t="str">
-        <f>VLOOKUP(E15,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00002_c0</v>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1381</v>
       </c>
       <c r="G15">
-        <v>0.93795918367346898</v>
+        <v>0.93092105263157898</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="str">
-        <f>VLOOKUP(A16,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>dTDP-4-oxo-L-rhamnose_c0</v>
-      </c>
-      <c r="C16" t="str">
-        <f>VLOOKUP(B16,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00522_c0</v>
+        <v>2177</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2210</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" t="str">
-        <f>VLOOKUP(D16,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>dTDP-rhamnose_c0</v>
-      </c>
-      <c r="F16" t="str">
-        <f>VLOOKUP(E16,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd02113_c0</v>
+        <v>2178</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2208</v>
       </c>
       <c r="G16">
-        <v>0.91276764472640703</v>
+        <v>0.92301770592763599</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="str">
-        <f>VLOOKUP(A17,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>dTDP-4-oxo-6-deoxy-D-glucose_c0</v>
-      </c>
-      <c r="C17" t="str">
-        <f>VLOOKUP(B17,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00521_c0</v>
+        <v>922</v>
+      </c>
+      <c r="B17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1482</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" t="str">
-        <f>VLOOKUP(D17,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>dTDP-rhamnose_c0</v>
-      </c>
-      <c r="F17" t="str">
-        <f>VLOOKUP(E17,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd02113_c0</v>
+        <v>2194</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2203</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2204</v>
       </c>
       <c r="G17">
-        <v>0.91276764472640703</v>
+        <v>0.91666666666666596</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="str">
-        <f>VLOOKUP(A18,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>Tetrahydrofolate_c0</v>
-      </c>
-      <c r="C18" t="str">
-        <f>VLOOKUP(B18,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00087_c0</v>
+        <v>980</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2206</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="str">
-        <f>VLOOKUP(D18,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>THF-L-glutamate_c0</v>
-      </c>
-      <c r="F18" t="str">
-        <f>VLOOKUP(E18,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd06227_c0</v>
+        <v>922</v>
+      </c>
+      <c r="E18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1482</v>
       </c>
       <c r="G18">
-        <v>0.91029023746701798</v>
+        <v>0.91172106824925803</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" t="str">
-        <f>VLOOKUP(A19,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>dTDP-4-oxo-L-rhamnose_c0</v>
-      </c>
-      <c r="C19" t="str">
-        <f>VLOOKUP(B19,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00522_c0</v>
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1381</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="str">
-        <f>VLOOKUP(D19,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>dTDPglucose_c0</v>
-      </c>
-      <c r="F19" t="str">
-        <f>VLOOKUP(E19,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00626_c0</v>
+        <v>2167</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2168</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2169</v>
       </c>
       <c r="G19">
-        <v>0.90988142292490104</v>
+        <v>0.90948651000870295</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="str">
-        <f>VLOOKUP(A20,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>dTDP-4-oxo-6-deoxy-D-glucose_c0</v>
-      </c>
-      <c r="C20" t="str">
-        <f>VLOOKUP(B20,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00521_c0</v>
+        <v>2178</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2208</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="str">
-        <f>VLOOKUP(D20,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>dTDPglucose_c0</v>
-      </c>
-      <c r="F20" t="str">
-        <f>VLOOKUP(E20,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00626_c0</v>
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1397</v>
       </c>
       <c r="G20">
-        <v>0.90988142292490104</v>
+        <v>0.90023752969121096</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="str">
-        <f>VLOOKUP(A21,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NADH_c0</v>
-      </c>
-      <c r="C21" t="str">
-        <f>VLOOKUP(B21,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00004_c0</v>
+        <v>2171</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2212</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" t="str">
-        <f>VLOOKUP(D21,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>ADP_c0</v>
-      </c>
-      <c r="F21" t="str">
-        <f>VLOOKUP(E21,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00008_c0</v>
+        <v>2172</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2213</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2214</v>
       </c>
       <c r="G21">
-        <v>0.88897113249444804</v>
+        <v>0.89621811785400096</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="str">
-        <f>VLOOKUP(A22,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>CoA_c0</v>
-      </c>
-      <c r="C22" t="str">
-        <f>VLOOKUP(B22,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00010_c0</v>
+        <v>2178</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2208</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" t="str">
-        <f>VLOOKUP(D22,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>ADP_c0</v>
-      </c>
-      <c r="F22" t="str">
-        <f>VLOOKUP(E22,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00008_c0</v>
+        <v>983</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2196</v>
       </c>
       <c r="G22">
-        <v>0.88438880706921896</v>
+        <v>0.89241034195162605</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="str">
-        <f>VLOOKUP(A23,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NADH_c0</v>
-      </c>
-      <c r="C23" t="str">
-        <f>VLOOKUP(B23,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00004_c0</v>
+        <v>983</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2196</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" t="str">
-        <f>VLOOKUP(D23,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>ATP_c0</v>
-      </c>
-      <c r="F23" t="str">
-        <f>VLOOKUP(E23,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00002_c0</v>
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1397</v>
       </c>
       <c r="G23">
-        <v>0.88029197080291899</v>
+        <v>0.89092422980849295</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="str">
-        <f>VLOOKUP(A24,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NADPH_c0</v>
-      </c>
-      <c r="C24" t="str">
-        <f>VLOOKUP(B24,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00005_c0</v>
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1405</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" t="str">
-        <f>VLOOKUP(D24,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>NADP_c0</v>
-      </c>
-      <c r="F24" t="str">
-        <f>VLOOKUP(E24,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00006_c0</v>
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1397</v>
       </c>
       <c r="G24">
-        <v>0.87873015873015803</v>
+        <v>0.88897113249444804</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="str">
-        <f>VLOOKUP(A25,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>CoA_c0</v>
-      </c>
-      <c r="C25" t="str">
-        <f>VLOOKUP(B25,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00010_c0</v>
+        <v>2179</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2216</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" t="str">
-        <f>VLOOKUP(D25,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>ATP_c0</v>
-      </c>
-      <c r="F25" t="str">
-        <f>VLOOKUP(E25,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00002_c0</v>
+        <v>2188</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2217</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2218</v>
       </c>
       <c r="G25">
-        <v>0.87581699346405195</v>
+        <v>0.887054735013032</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="str">
-        <f>VLOOKUP(A26,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>TPP_c0</v>
-      </c>
-      <c r="C26" t="str">
-        <f>VLOOKUP(B26,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00056_c0</v>
+        <v>2178</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2208</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="str">
-        <f>VLOOKUP(D26,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>Thiamin_c0</v>
-      </c>
-      <c r="F26" t="str">
-        <f>VLOOKUP(E26,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00305_c0</v>
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1377</v>
       </c>
       <c r="G26">
-        <v>0.86697247706421998</v>
+        <v>0.88638132295719796</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="str">
-        <f>VLOOKUP(A27,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>Succinyl-CoA_c0</v>
-      </c>
-      <c r="C27" t="str">
-        <f>VLOOKUP(B27,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00078_c0</v>
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1401</v>
       </c>
       <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E27" t="str">
-        <f>VLOOKUP(D27,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>ADP_c0</v>
-      </c>
-      <c r="F27" t="str">
-        <f>VLOOKUP(E27,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00008_c0</v>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1397</v>
       </c>
       <c r="G27">
-        <v>0.85847033595425304</v>
+        <v>0.88438880706921896</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" t="str">
-        <f>VLOOKUP(A28,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NAD_c0</v>
-      </c>
-      <c r="C28" t="str">
-        <f>VLOOKUP(B28,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00003_c0</v>
+        <v>2178</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2208</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" t="str">
-        <f>VLOOKUP(D28,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>NADH_c0</v>
-      </c>
-      <c r="F28" t="str">
-        <f>VLOOKUP(E28,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00004_c0</v>
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1401</v>
       </c>
       <c r="G28">
-        <v>0.85413929040735803</v>
+        <v>0.882916053019145</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="str">
-        <f>VLOOKUP(A29,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>Succinyl-CoA_c0</v>
-      </c>
-      <c r="C29" t="str">
-        <f>VLOOKUP(B29,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00078_c0</v>
+        <v>2187</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2202</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" t="str">
-        <f>VLOOKUP(D29,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>ATP_c0</v>
-      </c>
-      <c r="F29" t="str">
-        <f>VLOOKUP(E29,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00002_c0</v>
+        <v>922</v>
+      </c>
+      <c r="E29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1482</v>
       </c>
       <c r="G29">
-        <v>0.85179957657021799</v>
+        <v>0.882513661202185</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
-      <c r="B30" t="str">
-        <f>VLOOKUP(A30,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NADH_c0</v>
-      </c>
-      <c r="C30" t="str">
-        <f>VLOOKUP(B30,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00004_c0</v>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1405</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" t="str">
-        <f>VLOOKUP(D30,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>AMP_c0</v>
-      </c>
-      <c r="F30" t="str">
-        <f>VLOOKUP(E30,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00018_c0</v>
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1377</v>
       </c>
       <c r="G30">
-        <v>0.85048112509252405</v>
+        <v>0.88029197080291899</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="str">
-        <f>VLOOKUP(A31,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>CoA_c0</v>
-      </c>
-      <c r="C31" t="str">
-        <f>VLOOKUP(B31,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00010_c0</v>
+        <v>2177</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2210</v>
       </c>
       <c r="D31" t="s">
         <v>40</v>
       </c>
-      <c r="E31" t="str">
-        <f>VLOOKUP(D31,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>AMP_c0</v>
-      </c>
-      <c r="F31" t="str">
-        <f>VLOOKUP(E31,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00018_c0</v>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1381</v>
       </c>
       <c r="G31">
-        <v>0.84609720176730396</v>
+        <v>0.88018433179723499</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="B32" t="str">
-        <f>VLOOKUP(A32,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NADPH_c0</v>
-      </c>
-      <c r="C32" t="str">
-        <f>VLOOKUP(B32,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00005_c0</v>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1404</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" t="str">
-        <f>VLOOKUP(D32,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>ADP_c0</v>
-      </c>
-      <c r="F32" t="str">
-        <f>VLOOKUP(E32,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00008_c0</v>
+        <v>47</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1406</v>
       </c>
       <c r="G32">
-        <v>0.84103641456582601</v>
+        <v>0.87873015873015803</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="str">
-        <f>VLOOKUP(A33,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NADPH_c0</v>
-      </c>
-      <c r="C33" t="str">
-        <f>VLOOKUP(B33,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00005_c0</v>
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1397</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" t="str">
-        <f>VLOOKUP(D33,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>NAD_c0</v>
-      </c>
-      <c r="F33" t="str">
-        <f>VLOOKUP(E33,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00003_c0</v>
+        <v>912</v>
+      </c>
+      <c r="E33" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1472</v>
       </c>
       <c r="G33">
-        <v>0.84063492063491996</v>
+        <v>0.87600291757840898</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" t="str">
-        <f>VLOOKUP(A34,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NADH_c0</v>
-      </c>
-      <c r="C34" t="str">
-        <f>VLOOKUP(B34,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00004_c0</v>
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1401</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" t="str">
-        <f>VLOOKUP(D34,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>CoA_c0</v>
-      </c>
-      <c r="F34" t="str">
-        <f>VLOOKUP(E34,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00010_c0</v>
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1377</v>
       </c>
       <c r="G34">
-        <v>0.83910386965376704</v>
+        <v>0.87581699346405195</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" t="str">
-        <f>VLOOKUP(A35,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NADPH_c0</v>
-      </c>
-      <c r="C35" t="str">
-        <f>VLOOKUP(B35,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00005_c0</v>
+        <v>2178</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2208</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" t="str">
-        <f>VLOOKUP(D35,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>ATP_c0</v>
-      </c>
-      <c r="F35" t="str">
-        <f>VLOOKUP(E35,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00002_c0</v>
+        <v>912</v>
+      </c>
+      <c r="E35" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1472</v>
       </c>
       <c r="G35">
-        <v>0.83725761772853102</v>
+        <v>0.87454412837344997</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" t="str">
-        <f>VLOOKUP(A36,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NADPH_c0</v>
-      </c>
-      <c r="C36" t="str">
-        <f>VLOOKUP(B36,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00005_c0</v>
+        <v>983</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2196</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" t="str">
-        <f>VLOOKUP(D36,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>CoA_c0</v>
-      </c>
-      <c r="F36" t="str">
-        <f>VLOOKUP(E36,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00010_c0</v>
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1377</v>
       </c>
       <c r="G36">
-        <v>0.83289473684210502</v>
+        <v>0.87346938775510197</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="str">
-        <f>VLOOKUP(A37,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NADH_c0</v>
-      </c>
-      <c r="C37" t="str">
-        <f>VLOOKUP(B37,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00004_c0</v>
+        <v>980</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2206</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" t="str">
-        <f>VLOOKUP(D37,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>NADP_c0</v>
-      </c>
-      <c r="F37" t="str">
-        <f>VLOOKUP(E37,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00006_c0</v>
+        <v>2187</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2201</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2202</v>
       </c>
       <c r="G37">
-        <v>0.82984126984126905</v>
+        <v>0.87286931818181801</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" t="str">
-        <f>VLOOKUP(A38,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NADH_c0</v>
-      </c>
-      <c r="C38" t="str">
-        <f>VLOOKUP(B38,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00004_c0</v>
+        <v>2178</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2208</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" t="str">
-        <f>VLOOKUP(D38,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>Succinyl-CoA_c0</v>
-      </c>
-      <c r="F38" t="str">
-        <f>VLOOKUP(E38,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00078_c0</v>
+        <v>2167</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2168</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2169</v>
       </c>
       <c r="G38">
-        <v>0.82724252491694295</v>
+        <v>0.87155963302752204</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" t="str">
-        <f>VLOOKUP(A39,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>1-deoxy-D-xylulose5-phosphate_c0</v>
-      </c>
-      <c r="C39" t="str">
-        <f>VLOOKUP(B39,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd08289_c0</v>
+        <v>2167</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2169</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" t="str">
-        <f>VLOOKUP(D39,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>D-Erythrose4-phosphate_c0</v>
-      </c>
-      <c r="F39" t="str">
-        <f>VLOOKUP(E39,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00236_c0</v>
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1397</v>
       </c>
       <c r="G39">
-        <v>0.82352941176470495</v>
+        <v>0.87010824313072399</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" t="str">
-        <f>VLOOKUP(A40,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NADPH_c0</v>
-      </c>
-      <c r="C40" t="str">
-        <f>VLOOKUP(B40,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00005_c0</v>
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1377</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" t="str">
-        <f>VLOOKUP(D40,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>Succinyl-CoA_c0</v>
-      </c>
-      <c r="F40" t="str">
-        <f>VLOOKUP(E40,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00078_c0</v>
+        <v>912</v>
+      </c>
+      <c r="E40" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1472</v>
       </c>
       <c r="G40">
-        <v>0.821520618556701</v>
+        <v>0.86762589928057499</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="str">
-        <f>VLOOKUP(A41,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>AMP_c0</v>
-      </c>
-      <c r="C41" t="str">
-        <f>VLOOKUP(B41,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00018_c0</v>
+        <v>1144</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2220</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" t="str">
-        <f>VLOOKUP(D41,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>Succinyl-CoA_c0</v>
-      </c>
-      <c r="F41" t="str">
-        <f>VLOOKUP(E41,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00078_c0</v>
+        <v>2171</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2211</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2212</v>
       </c>
       <c r="G41">
-        <v>0.82130092923516795</v>
+        <v>0.86653581943081404</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="str">
-        <f>VLOOKUP(A42,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NAD_c0</v>
-      </c>
-      <c r="C42" t="str">
-        <f>VLOOKUP(B42,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00003_c0</v>
+        <v>1266</v>
+      </c>
+      <c r="B42" t="s">
+        <v>703</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1993</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" t="str">
-        <f>VLOOKUP(D42,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>ATP_c0</v>
-      </c>
-      <c r="F42" t="str">
-        <f>VLOOKUP(E42,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00002_c0</v>
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1397</v>
       </c>
       <c r="G42">
-        <v>0.81793661496965597</v>
+        <v>0.86652236652236603</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" t="str">
-        <f>VLOOKUP(A43,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NAD_c0</v>
-      </c>
-      <c r="C43" t="str">
-        <f>VLOOKUP(B43,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00003_c0</v>
+        <v>2178</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2208</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" t="str">
-        <f>VLOOKUP(D43,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>ADP_c0</v>
-      </c>
-      <c r="F43" t="str">
-        <f>VLOOKUP(E43,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00008_c0</v>
+        <v>1266</v>
+      </c>
+      <c r="E43" t="s">
+        <v>703</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1993</v>
       </c>
       <c r="G43">
-        <v>0.81645139360978902</v>
+        <v>0.865079365079365</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" t="str">
-        <f>VLOOKUP(A44,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NAD_c0</v>
-      </c>
-      <c r="C44" t="str">
-        <f>VLOOKUP(B44,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00003_c0</v>
+        <v>2177</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2210</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" t="str">
-        <f>VLOOKUP(D44,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>CoA_c0</v>
-      </c>
-      <c r="F44" t="str">
-        <f>VLOOKUP(E44,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00010_c0</v>
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1397</v>
       </c>
       <c r="G44">
-        <v>0.80766773162939298</v>
+        <v>0.86428038777032001</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" t="str">
-        <f>VLOOKUP(A45,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NADPH_c0</v>
-      </c>
-      <c r="C45" t="str">
-        <f>VLOOKUP(B45,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00005_c0</v>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1404</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" t="str">
-        <f>VLOOKUP(D45,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>AMP_c0</v>
-      </c>
-      <c r="F45" t="str">
-        <f>VLOOKUP(E45,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00018_c0</v>
+        <v>2177</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2210</v>
       </c>
       <c r="G45">
-        <v>0.80462184873949505</v>
+        <v>0.86397812713602096</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="str">
-        <f>VLOOKUP(A46,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>CoA_c0</v>
-      </c>
-      <c r="C46" t="str">
-        <f>VLOOKUP(B46,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00010_c0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" t="str">
-        <f>VLOOKUP(D46,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>NADP_c0</v>
-      </c>
-      <c r="F46" t="str">
-        <f>VLOOKUP(E46,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00006_c0</v>
+      <c r="E46" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1401</v>
       </c>
       <c r="G46">
-        <v>0.80224578914535205</v>
+        <v>0.86325385694249601</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="str">
-        <f>VLOOKUP(A47,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NAD_c0</v>
-      </c>
-      <c r="C47" t="str">
-        <f>VLOOKUP(B47,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00003_c0</v>
+        <v>1266</v>
+      </c>
+      <c r="B47" t="s">
+        <v>703</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1993</v>
       </c>
       <c r="D47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" t="str">
-        <f>VLOOKUP(D47,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>Succinyl-CoA_c0</v>
-      </c>
-      <c r="F47" t="str">
-        <f>VLOOKUP(E47,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00078_c0</v>
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1377</v>
       </c>
       <c r="G47">
-        <v>0.79937304075235105</v>
+        <v>0.85836298932384303</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" t="str">
-        <f>VLOOKUP(A48,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>Succinyl-CoA_c0</v>
-      </c>
-      <c r="C48" t="str">
-        <f>VLOOKUP(B48,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00078_c0</v>
+        <v>2177</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2210</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" t="str">
-        <f>VLOOKUP(D48,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>NADP_c0</v>
-      </c>
-      <c r="F48" t="str">
-        <f>VLOOKUP(E48,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00006_c0</v>
+        <v>912</v>
+      </c>
+      <c r="E48" t="s">
+        <v>168</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1472</v>
       </c>
       <c r="G48">
-        <v>0.79424372320881798</v>
+        <v>0.85674547983310101</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" t="str">
-        <f>VLOOKUP(A49,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NADP_c0</v>
-      </c>
-      <c r="C49" t="str">
-        <f>VLOOKUP(B49,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00006_c0</v>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1403</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" t="str">
-        <f>VLOOKUP(D49,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>ATP_c0</v>
-      </c>
-      <c r="F49" t="str">
-        <f>VLOOKUP(E49,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00002_c0</v>
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1405</v>
       </c>
       <c r="G49">
-        <v>0.78613091380427702</v>
+        <v>0.85413929040735803</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" t="str">
-        <f>VLOOKUP(A50,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NADP_c0</v>
-      </c>
-      <c r="C50" t="str">
-        <f>VLOOKUP(B50,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00006_c0</v>
+        <v>1245</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2222</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" t="str">
-        <f>VLOOKUP(D50,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>ADP_c0</v>
-      </c>
-      <c r="F50" t="str">
-        <f>VLOOKUP(E50,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00008_c0</v>
+        <v>2188</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2217</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2218</v>
       </c>
       <c r="G50">
-        <v>0.78445460483344198</v>
+        <v>0.85406464250734504</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" t="str">
-        <f>VLOOKUP(A51,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>Pyruvate_c0</v>
-      </c>
-      <c r="C51" t="str">
-        <f>VLOOKUP(B51,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00020_c0</v>
+        <v>2177</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2210</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" t="str">
-        <f>VLOOKUP(D51,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>2-Oxobutyrate_c0</v>
-      </c>
-      <c r="F51" t="str">
-        <f>VLOOKUP(E51,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00094_c0</v>
+        <v>44</v>
+      </c>
+      <c r="E51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1377</v>
       </c>
       <c r="G51">
-        <v>0.78378378378378299</v>
+        <v>0.85315712187958803</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" t="str">
-        <f>VLOOKUP(A52,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>NAD_c0</v>
-      </c>
-      <c r="C52" t="str">
-        <f>VLOOKUP(B52,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00003_c0</v>
+        <v>2167</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2169</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" t="str">
-        <f>VLOOKUP(D52,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>AMP_c0</v>
-      </c>
-      <c r="F52" t="str">
-        <f>VLOOKUP(E52,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00018_c0</v>
+        <v>44</v>
+      </c>
+      <c r="E52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1377</v>
       </c>
       <c r="G52">
-        <v>0.78110129163834097</v>
+        <v>0.85306122448979504</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" t="str">
-        <f>VLOOKUP(A53,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>4-Methyl-5--2-hydroxyethyl-thiazole_c0</v>
-      </c>
-      <c r="C53" t="str">
-        <f>VLOOKUP(B53,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd02636_c0</v>
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1405</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" t="str">
-        <f>VLOOKUP(D53,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>4-Methyl-5--2-phosphoethyl-thiazole_c0</v>
-      </c>
-      <c r="F53" t="str">
-        <f>VLOOKUP(E53,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd02654_c0</v>
+        <v>40</v>
+      </c>
+      <c r="E53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1381</v>
       </c>
       <c r="G53">
-        <v>0.75308641975308599</v>
+        <v>0.85048112509252405</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E54" t="s">
+        <v>703</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G54">
+        <v>0.84917355371900805</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D55" t="s">
         <v>40</v>
       </c>
-      <c r="B54" t="str">
-        <f>VLOOKUP(A54,Sheet2!$B$2:$C$842,2,FALSE)</f>
-        <v>AMP_c0</v>
-      </c>
-      <c r="C54" t="str">
-        <f>VLOOKUP(B54,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00018_c0</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G55">
+        <v>0.84609720176730396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G56">
+        <v>0.84103641456582601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D57" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G57">
+        <v>0.84063492063491996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G58">
+        <v>0.83910386965376704</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D59" t="s">
+        <v>912</v>
+      </c>
+      <c r="E59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G59">
+        <v>0.83807439824945296</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B60" t="s">
+        <v>322</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E60" t="s">
+        <v>321</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G60">
+        <v>0.83777777777777696</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G61">
+        <v>0.83725761772853102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D62" t="s">
+        <v>912</v>
+      </c>
+      <c r="E62" t="s">
+        <v>168</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G62">
+        <v>0.83546864463924397</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D63" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G63">
+        <v>0.83289473684210502</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D64" t="s">
         <v>47</v>
       </c>
-      <c r="E54" t="str">
-        <f>VLOOKUP(D54,Sheet2!$B$2:$C$843,2,FALSE)</f>
-        <v>NADP_c0</v>
-      </c>
-      <c r="F54" t="str">
-        <f>VLOOKUP(E54,Sheet2!$C$1:$D$824,2,FALSE)</f>
-        <v>cpd00006_c0</v>
-      </c>
-      <c r="G54">
+      <c r="E64" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G64">
+        <v>0.82984126984126905</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E65" t="s">
+        <v>703</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G65">
+        <v>0.82954545454545403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D66" t="s">
+        <v>912</v>
+      </c>
+      <c r="E66" t="s">
+        <v>168</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G66">
+        <v>0.82941176470588196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B67" t="s">
+        <v>703</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G67">
+        <v>0.82900432900432897</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B68" t="s">
+        <v>876</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2223</v>
+      </c>
+      <c r="F68" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G68">
+        <v>0.82547169811320698</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B69" t="s">
+        <v>876</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2225</v>
+      </c>
+      <c r="F69" t="s">
+        <v>2226</v>
+      </c>
+      <c r="G69">
+        <v>0.82547169811320698</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E70" t="s">
+        <v>703</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G70">
+        <v>0.82490272373540796</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D71" t="s">
+        <v>983</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F71" t="s">
+        <v>2196</v>
+      </c>
+      <c r="G71">
+        <v>0.82371054657428699</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2229</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2230</v>
+      </c>
+      <c r="G72">
+        <v>0.82296650717703301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2233</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2234</v>
+      </c>
+      <c r="G73">
+        <v>0.82291666666666596</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2178</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2208</v>
+      </c>
+      <c r="G74">
+        <v>0.820128479657387</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D75" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G75">
+        <v>0.81793661496965597</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D76" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" t="s">
+        <v>88</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G76">
+        <v>0.81645139360978902</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2184</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2237</v>
+      </c>
+      <c r="F77" t="s">
+        <v>2238</v>
+      </c>
+      <c r="G77">
+        <v>0.81632653061224403</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F78" t="s">
+        <v>2210</v>
+      </c>
+      <c r="G78">
+        <v>0.81382614647501705</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D79" t="s">
+        <v>47</v>
+      </c>
+      <c r="E79" t="s">
+        <v>97</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G79">
+        <v>0.81177976952624797</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2178</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F80" t="s">
+        <v>2208</v>
+      </c>
+      <c r="G80">
+        <v>0.80922865013774103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D81" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G81">
+        <v>0.80766773162939298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D82" t="s">
+        <v>912</v>
+      </c>
+      <c r="E82" t="s">
+        <v>168</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G82">
+        <v>0.80673871582962497</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D83" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" t="s">
+        <v>72</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G83">
+        <v>0.80462184873949505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2168</v>
+      </c>
+      <c r="F84" t="s">
+        <v>2169</v>
+      </c>
+      <c r="G84">
+        <v>0.80446497305619702</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E85" t="s">
+        <v>703</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G85">
+        <v>0.80252365930599301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D86" t="s">
+        <v>47</v>
+      </c>
+      <c r="E86" t="s">
+        <v>97</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G86">
+        <v>0.80224578914535205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D87" t="s">
+        <v>912</v>
+      </c>
+      <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G87">
+        <v>0.801365611421477</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B88" t="s">
+        <v>703</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D88" t="s">
+        <v>47</v>
+      </c>
+      <c r="E88" t="s">
+        <v>97</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G88">
+        <v>0.79839704069050499</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D89" t="s">
+        <v>983</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F89" t="s">
+        <v>2196</v>
+      </c>
+      <c r="G89">
+        <v>0.79200592153960003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B90" t="s">
+        <v>876</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2185</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2239</v>
+      </c>
+      <c r="F90" t="s">
+        <v>2240</v>
+      </c>
+      <c r="G90">
+        <v>0.79057591623036605</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B91" t="s">
+        <v>876</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E91" t="s">
+        <v>877</v>
+      </c>
+      <c r="F91" t="s">
+        <v>2162</v>
+      </c>
+      <c r="G91">
+        <v>0.79057591623036605</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>983</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D92" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" t="s">
+        <v>92</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G92">
+        <v>0.78792341678939604</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D93" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G93">
+        <v>0.78613091380427702</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D94" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94" t="s">
+        <v>88</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G94">
+        <v>0.78445460483344198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D95" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" t="s">
+        <v>72</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G95">
+        <v>0.78110129163834097</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>983</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D96" t="s">
+        <v>912</v>
+      </c>
+      <c r="E96" t="s">
+        <v>168</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G96">
+        <v>0.78045222465353703</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2172</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2213</v>
+      </c>
+      <c r="F97" t="s">
+        <v>2214</v>
+      </c>
+      <c r="G97">
+        <v>0.77660510114335901</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F98" t="s">
+        <v>2210</v>
+      </c>
+      <c r="G98">
+        <v>0.77450352338244699</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2241</v>
+      </c>
+      <c r="F99" t="s">
+        <v>2242</v>
+      </c>
+      <c r="G99">
+        <v>0.77419354838709598</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2168</v>
+      </c>
+      <c r="F100" t="s">
+        <v>2169</v>
+      </c>
+      <c r="G100">
+        <v>0.77350111028867496</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>983</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E101" t="s">
+        <v>703</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G101">
+        <v>0.77200577200577203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>930</v>
+      </c>
+      <c r="B102" t="s">
+        <v>189</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2243</v>
+      </c>
+      <c r="F102" t="s">
+        <v>2244</v>
+      </c>
+      <c r="G102">
+        <v>0.77130044843049295</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>45</v>
+      </c>
+      <c r="B103" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2168</v>
+      </c>
+      <c r="F103" t="s">
+        <v>2169</v>
+      </c>
+      <c r="G103">
+        <v>0.76951399116347496</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E104" t="s">
+        <v>786</v>
+      </c>
+      <c r="F104" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G104">
+        <v>0.76923076923076905</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D105" t="s">
+        <v>2178</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F105" t="s">
+        <v>2208</v>
+      </c>
+      <c r="G105">
+        <v>0.76704169424222302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F106" t="s">
+        <v>2248</v>
+      </c>
+      <c r="G106">
+        <v>0.76444444444444404</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F107" t="s">
+        <v>2248</v>
+      </c>
+      <c r="G107">
+        <v>0.76444444444444404</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D108" t="s">
+        <v>912</v>
+      </c>
+      <c r="E108" t="s">
+        <v>168</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G108">
+        <v>0.76221735959153902</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D109" t="s">
+        <v>930</v>
+      </c>
+      <c r="E109" t="s">
+        <v>189</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G109">
+        <v>0.762081784386617</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D110" t="s">
+        <v>47</v>
+      </c>
+      <c r="E110" t="s">
+        <v>97</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G110">
+        <v>0.761290322580645</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B111" t="s">
+        <v>876</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F111" t="s">
+        <v>2248</v>
+      </c>
+      <c r="G111">
+        <v>0.76036866359446997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2221</v>
+      </c>
+      <c r="F112" t="s">
+        <v>2222</v>
+      </c>
+      <c r="G112">
+        <v>0.75760208514335303</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>928</v>
+      </c>
+      <c r="B113" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2251</v>
+      </c>
+      <c r="F113" t="s">
+        <v>2252</v>
+      </c>
+      <c r="G113">
+        <v>0.75560711523588497</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B114" t="s">
+        <v>703</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2168</v>
+      </c>
+      <c r="F114" t="s">
+        <v>2169</v>
+      </c>
+      <c r="G114">
+        <v>0.75396825396825395</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D115" t="s">
+        <v>928</v>
+      </c>
+      <c r="E115" t="s">
+        <v>185</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G115">
+        <v>0.75241439859525905</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B116" t="s">
+        <v>842</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D116" t="s">
+        <v>47</v>
+      </c>
+      <c r="E116" t="s">
+        <v>97</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G116">
+        <v>0.751916757940854</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>40</v>
+      </c>
+      <c r="B117" t="s">
+        <v>72</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D117" t="s">
+        <v>47</v>
+      </c>
+      <c r="E117" t="s">
+        <v>97</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G117">
         <v>0.75048987589810501</v>
       </c>
     </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>50</v>
+      </c>
+      <c r="B118" t="s">
+        <v>95</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D118" t="s">
+        <v>983</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F118" t="s">
+        <v>2196</v>
+      </c>
+      <c r="G118">
+        <v>0.74929971988795496</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B119" t="s">
+        <v>638</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D119" t="s">
+        <v>887</v>
+      </c>
+      <c r="E119" t="s">
+        <v>138</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G119">
+        <v>0.74285714285714199</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>48</v>
+      </c>
+      <c r="B120" t="s">
+        <v>94</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E120" t="s">
+        <v>842</v>
+      </c>
+      <c r="F120" t="s">
+        <v>2126</v>
+      </c>
+      <c r="G120">
+        <v>0.74098724348308298</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B121" t="s">
+        <v>638</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E121" t="s">
+        <v>702</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1992</v>
+      </c>
+      <c r="G121">
+        <v>0.73684210526315697</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>50</v>
+      </c>
+      <c r="B122" t="s">
+        <v>95</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E122" t="s">
+        <v>2168</v>
+      </c>
+      <c r="F122" t="s">
+        <v>2169</v>
+      </c>
+      <c r="G122">
+        <v>0.73179271708683402</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E123" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F123" t="s">
+        <v>2248</v>
+      </c>
+      <c r="G123">
+        <v>0.72862453531598503</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>48</v>
+      </c>
+      <c r="B124" t="s">
+        <v>94</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D124" t="s">
+        <v>983</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F124" t="s">
+        <v>2196</v>
+      </c>
+      <c r="G124">
+        <v>0.72739632902787199</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D125" t="s">
+        <v>928</v>
+      </c>
+      <c r="E125" t="s">
+        <v>185</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G125">
+        <v>0.72541743970315398</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B126" t="s">
+        <v>638</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E126" t="s">
+        <v>867</v>
+      </c>
+      <c r="F126" t="s">
+        <v>2152</v>
+      </c>
+      <c r="G126">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B127" t="s">
+        <v>638</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D127" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127" t="s">
+        <v>110</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1416</v>
+      </c>
+      <c r="G127">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B128" t="s">
+        <v>638</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E128" t="s">
+        <v>866</v>
+      </c>
+      <c r="F128" t="s">
+        <v>2151</v>
+      </c>
+      <c r="G128">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B129" t="s">
+        <v>638</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E129" t="s">
+        <v>327</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G129">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B130" t="s">
+        <v>638</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E130" t="s">
+        <v>494</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1790</v>
+      </c>
+      <c r="G130">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B131" t="s">
+        <v>638</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E131" t="s">
+        <v>863</v>
+      </c>
+      <c r="F131" t="s">
+        <v>2148</v>
+      </c>
+      <c r="G131">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B132" t="s">
+        <v>842</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E132" t="s">
+        <v>703</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G132">
+        <v>0.72444946357989803</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>50</v>
+      </c>
+      <c r="B133" t="s">
+        <v>95</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E133" t="s">
+        <v>842</v>
+      </c>
+      <c r="F133" t="s">
+        <v>2126</v>
+      </c>
+      <c r="G133">
+        <v>0.72287145242070105</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B134" t="s">
+        <v>842</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D134" t="s">
+        <v>912</v>
+      </c>
+      <c r="E134" t="s">
+        <v>168</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G134">
+        <v>0.72083805209512997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B135" t="s">
+        <v>842</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D135" t="s">
+        <v>45</v>
+      </c>
+      <c r="E135" t="s">
+        <v>92</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G135">
+        <v>0.720295622512791</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D136" t="s">
+        <v>928</v>
+      </c>
+      <c r="E136" t="s">
+        <v>185</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G136">
+        <v>0.71730300568643302</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D137" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E137" t="s">
+        <v>2201</v>
+      </c>
+      <c r="F137" t="s">
+        <v>2202</v>
+      </c>
+      <c r="G137">
+        <v>0.71170568561872904</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>887</v>
+      </c>
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E138" t="s">
+        <v>702</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1992</v>
+      </c>
+      <c r="G138">
+        <v>0.71052631578947301</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" t="s">
+        <v>94</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E139" t="s">
+        <v>2168</v>
+      </c>
+      <c r="F139" t="s">
+        <v>2169</v>
+      </c>
+      <c r="G139">
+        <v>0.71040108769544497</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E140" t="s">
+        <v>2201</v>
+      </c>
+      <c r="F140" t="s">
+        <v>2202</v>
+      </c>
+      <c r="G140">
+        <v>0.70896464646464596</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>49</v>
+      </c>
+      <c r="B141" t="s">
+        <v>96</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E141" t="s">
+        <v>842</v>
+      </c>
+      <c r="F141" t="s">
+        <v>2126</v>
+      </c>
+      <c r="G141">
+        <v>0.70372460496613998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2179</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2215</v>
+      </c>
+      <c r="F142" t="s">
+        <v>2216</v>
+      </c>
+      <c r="G142">
+        <v>0.70111524163568695</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E143" t="s">
+        <v>2223</v>
+      </c>
+      <c r="F143" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G143">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E144" t="s">
+        <v>2225</v>
+      </c>
+      <c r="F144" t="s">
+        <v>2226</v>
+      </c>
+      <c r="G144">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B145" t="s">
+        <v>877</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E145" t="s">
+        <v>2223</v>
+      </c>
+      <c r="F145" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G145">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B146" t="s">
+        <v>877</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E146" t="s">
+        <v>2225</v>
+      </c>
+      <c r="F146" t="s">
+        <v>2226</v>
+      </c>
+      <c r="G146">
+        <v>0.7</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:G1486">
-    <sortCondition descending="1" ref="G2:G1486"/>
+  <sortState ref="A2:G1475">
+    <sortCondition descending="1" ref="G2:G1475"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8380,7 +10545,7 @@
   <dimension ref="B1:D824"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D660" sqref="D660"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
